--- a/Music and Memory - Lucy/lyricscoring/lyricErrorAnalysis-Modifications_v2.xlsx
+++ b/Music and Memory - Lucy/lyricscoring/lyricErrorAnalysis-Modifications_v2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asternin/Documents/PhDProject.git/Music and Memory - Lucy/lyricscoring/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="337"/>
+    <workbookView xWindow="2360" yWindow="660" windowWidth="33840" windowHeight="18600" tabRatio="337"/>
   </bookViews>
   <sheets>
     <sheet name="Line Modifications" sheetId="14" r:id="rId1"/>
@@ -21,20 +26,20 @@
     <sheet name="Waving not Drowning" sheetId="11" r:id="rId12"/>
     <sheet name="Yeah Yeah" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="452">
   <si>
     <t>line number</t>
   </si>
@@ -1461,9 +1466,6 @@
     <t>You don't understand, you said we would be fine, you said we were divine</t>
   </si>
   <si>
-    <t>I've had enough but I want you, I need you</t>
-  </si>
-  <si>
     <t>I saw your mother the other day, she said you're fine now, you've gone away.</t>
   </si>
   <si>
@@ -2989,6 +2991,757 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> everything's unfair in a world that's always square</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>saved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the best parts for themselves</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And we </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">don't </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>even mind</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teach me how you do it, baby please chew </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>through</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>There's no way back from this disease,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you fall to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your knees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You always said you'd find a way to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep me from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this day</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Street</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lights in the distance, vanish like my resistance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wash it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>down,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remember last night</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wanna go home 'cuz I feel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>too</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> alone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It's not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enough, but I want you, I need you</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> understand, you said we would be fine, you said we were divine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I feel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>your hand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on my shoulder, yeah, wishing I’d never told you</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I tried to tell her that I could change, I tried to explain that my life </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isn't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strange</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This songs been lying, lying in my </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some of them have, some of them have, some of them </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are keeping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> us apart</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I walked on the moon, it was June, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the radio, yeah</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Now and then, now and then, yet again, in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>morning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yeah</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I tried to fly in the sky, in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blistering cold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, yeah</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Still like a stone, I heard a phone, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I had nothing to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> say, yeah</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">79, I saw the sign, but it was fine, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>come</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with me, yeah?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As we wave goodbye </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and try not to ask why</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He came </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">running </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>out of nowhere and gave chase</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You're wasting my time,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> don't waste my time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What you get out of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>life,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you get out of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>love</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lost in Notting Hill, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>looking for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a thrill</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dreaming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> about you</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They said I need a change of scene, leave the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to my monochrome dream</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>won't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be finished, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>won't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be finished, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>won't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be finished now that you’re not there</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They float through my window, they wander </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">through </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>my head</t>
     </r>
   </si>
 </sst>
@@ -3348,7 +4101,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3425,6 +4178,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3569,7 +4323,7 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="46">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3787,16 +4541,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4037,46 +4781,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4412,13 +5116,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="48" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" style="49" customWidth="1"/>
@@ -4427,7 +5131,7 @@
     <col min="5" max="16384" width="10.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
         <v>87</v>
       </c>
@@ -4439,7 +5143,7 @@
       </c>
       <c r="D1" s="47"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>88</v>
       </c>
@@ -4450,23 +5154,23 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="50" t="s">
         <v>312</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="50" t="s">
         <v>313</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
         <v>314</v>
       </c>
@@ -4474,15 +5178,15 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
         <v>315</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
         <v>316</v>
       </c>
@@ -4490,7 +5194,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
         <v>317</v>
       </c>
@@ -4498,7 +5202,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>89</v>
       </c>
@@ -4510,7 +5214,7 @@
       </c>
       <c r="D9" s="28"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="51" t="s">
         <v>49</v>
       </c>
@@ -4518,7 +5222,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="B11" s="51" t="s">
         <v>304</v>
       </c>
@@ -4526,7 +5230,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="51" t="s">
         <v>319</v>
       </c>
@@ -4534,7 +5238,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="51" t="s">
         <v>59</v>
       </c>
@@ -4542,31 +5246,31 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="51" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="51" t="s">
         <v>299</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="51" t="s">
         <v>321</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
         <v>285</v>
       </c>
@@ -4574,18 +5278,18 @@
         <v>310</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="51" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="51" t="s">
         <v>71</v>
       </c>
@@ -4593,15 +5297,15 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>322</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="51" t="s">
         <v>323</v>
       </c>
@@ -4609,7 +5313,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
         <v>309</v>
       </c>
@@ -4617,7 +5321,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
         <v>286</v>
       </c>
@@ -4625,90 +5329,90 @@
         <v>324</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="51" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="51" t="s">
         <v>105</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="51" t="s">
         <v>325</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>326</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="51" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="51" t="s">
         <v>327</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="B30" s="51" t="s">
         <v>328</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="51" t="s">
         <v>329</v>
       </c>
       <c r="C31" s="49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="51" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="51" t="s">
+      <c r="C32" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="C32" s="49" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="51" t="s">
         <v>116</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
         <v>287</v>
       </c>
@@ -4716,79 +5420,82 @@
         <v>122</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="51" t="s">
         <v>330</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="51" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="C36" s="54" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="51" t="s">
         <v>332</v>
       </c>
       <c r="C37" s="49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="C38" s="49" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="50" t="s">
         <v>132</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="51" t="s">
         <v>333</v>
       </c>
       <c r="C40" s="51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" s="51" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="51" t="s">
         <v>136</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="51" t="s">
         <v>334</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
         <v>288</v>
       </c>
@@ -4796,74 +5503,74 @@
         <v>144</v>
       </c>
       <c r="C44" s="49" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="51" t="s">
         <v>145</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="51" t="s">
         <v>335</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="51" t="s">
         <v>336</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="51" t="s">
         <v>152</v>
       </c>
       <c r="C48" s="49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="C49" s="51" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="B49" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="C49" s="51" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="50" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="B50" s="50" t="s">
+      <c r="C50" s="49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="C50" s="49" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51" s="51" t="s">
-        <v>420</v>
-      </c>
       <c r="C51" s="49" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" s="51" t="s">
         <v>337</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
         <v>289</v>
       </c>
@@ -4871,266 +5578,335 @@
         <v>160</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="51" t="s">
         <v>338</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="51" t="s">
         <v>164</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="51" t="s">
         <v>165</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="53"/>
       <c r="B57" s="50" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" s="51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="50" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" s="50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59" s="50" t="s">
         <v>170</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="50" t="s">
         <v>171</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61" s="51" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61" s="49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="51" t="s">
         <v>173</v>
       </c>
       <c r="C62" s="49" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B63" s="51" t="s">
         <v>176</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="51" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" s="49" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="48" t="s">
         <v>290</v>
       </c>
       <c r="B65" s="51" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65" s="51" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" s="51" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66" s="49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" s="51" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="C68" s="49" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" s="51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="C69" s="49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B70" s="51" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="C70" s="49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="48" t="s">
         <v>291</v>
       </c>
       <c r="B71" s="51" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71" s="48" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B72" s="51" t="s">
         <v>343</v>
       </c>
       <c r="C72" s="49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B73" s="51" t="s">
         <v>181</v>
       </c>
       <c r="C73" s="49" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" s="51" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74" s="49" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B75" s="51" t="s">
         <v>183</v>
       </c>
       <c r="C75" s="48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B76" s="50" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76" s="49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B77" s="51" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77" s="51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B78" s="51" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="C78" s="51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B79" s="51" t="s">
         <v>191</v>
       </c>
       <c r="C79" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B80" s="51" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" s="50" t="s">
+      <c r="C80" s="51" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B81" s="51" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="48" t="s">
-        <v>292</v>
-      </c>
+      <c r="C81" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="C82" s="49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="B83" s="51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" s="49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B84" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="C84" s="49" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="48" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B85" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="51" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="B86" s="51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="C86" s="49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="48" t="s">
+        <v>293</v>
+      </c>
       <c r="B87" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C88" s="51" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="49" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="B88" s="51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B89" s="51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90" s="51" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="51" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="B91" s="51" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="C91" s="49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B92" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>223</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B93" s="51" t="s">
         <v>353</v>
       </c>
@@ -5138,87 +5914,84 @@
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="48" t="s">
+        <v>294</v>
+      </c>
       <c r="B94" s="51" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>231</v>
+      </c>
+      <c r="C94" s="51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="51" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" s="51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="C95" s="49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="B96" s="51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="C97" s="49" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="51" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="C101" s="49" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="51" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="C103" s="49" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102" s="49" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C104" s="49" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5230,12 +6003,12 @@
       <selection activeCell="M18" activeCellId="10" sqref="M2 M3 M5 M6 M7 M9 M10 M11 M15 M16 M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5291,7 +6064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5307,7 +6080,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5326,7 +6099,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5342,7 +6115,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1">
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5358,7 +6131,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5374,7 +6147,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5390,7 +6163,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5412,7 +6185,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="36" customFormat="1">
+    <row r="9" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36">
         <v>8</v>
       </c>
@@ -5428,7 +6201,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5447,7 +6220,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5463,7 +6236,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5494,7 +6267,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5531,7 +6304,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5550,7 +6323,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1">
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5566,7 +6339,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5582,7 +6355,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5598,7 +6371,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1">
+    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5617,7 +6390,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1">
+    <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5636,7 +6409,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5655,7 +6428,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5671,7 +6444,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5687,7 +6460,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5712,7 +6485,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5728,7 +6501,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5744,7 +6517,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5760,207 +6533,207 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -5982,11 +6755,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5998,12 +6766,12 @@
       <selection activeCell="M16" activeCellId="7" sqref="M2 M3 M5 M7 M11 M12 M15 M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6059,7 +6827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6078,7 +6846,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6097,7 +6865,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6113,7 +6881,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1">
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6138,7 +6906,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6175,7 +6943,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6191,7 +6959,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6207,7 +6975,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6226,7 +6994,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="15" customFormat="1">
+    <row r="10" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -6242,7 +7010,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1">
+    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6258,7 +7026,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6295,7 +7063,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6311,7 +7079,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6330,7 +7098,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1">
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6349,7 +7117,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6365,7 +7133,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6381,7 +7149,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6400,7 +7168,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1">
+    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -6437,7 +7205,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6453,7 +7221,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6469,7 +7237,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1">
+    <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -6506,7 +7274,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6522,7 +7290,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6541,7 +7309,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6557,7 +7325,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6573,7 +7341,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6589,7 +7357,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6611,199 +7379,199 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -6825,11 +7593,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6841,12 +7604,12 @@
       <selection activeCell="M15" activeCellId="6" sqref="M2 M4 M5 M6 M9 M11 M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="65.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6902,7 +7665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6936,7 +7699,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6973,7 +7736,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6998,7 +7761,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7032,7 +7795,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="3" customFormat="1">
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7051,7 +7814,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7073,7 +7836,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7101,7 +7864,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7123,7 +7886,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="15" customFormat="1">
+    <row r="10" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -7151,7 +7914,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7170,7 +7933,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7201,7 +7964,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1">
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7232,7 +7995,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7263,7 +8026,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7279,7 +8042,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7307,7 +8070,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7332,7 +8095,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7360,7 +8123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1">
+    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -7382,7 +8145,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7410,7 +8173,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7432,7 +8195,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7457,7 +8220,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7485,7 +8248,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1">
+    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7513,7 +8276,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1">
+    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7541,7 +8304,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1">
+    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7578,7 +8341,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7612,7 +8375,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7634,11 +8397,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>256</v>
       </c>
@@ -7651,7 +8414,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>1</v>
       </c>
@@ -7664,7 +8427,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2</v>
       </c>
@@ -7677,7 +8440,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>3</v>
       </c>
@@ -7690,179 +8453,179 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -7883,11 +8646,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7899,13 +8657,13 @@
       <selection activeCell="M2" activeCellId="8" sqref="M21 M18 M16 M14 M12 M8 M6 M4 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="7.6640625" customWidth="1"/>
     <col min="13" max="13" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7961,7 +8719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7984,7 +8742,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8004,7 +8762,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8021,7 +8779,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8041,7 +8799,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8061,7 +8819,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8081,7 +8839,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8104,7 +8862,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8124,7 +8882,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8144,7 +8902,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="15" customFormat="1">
+    <row r="11" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -8164,7 +8922,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -8183,7 +8941,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8203,7 +8961,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8223,7 +8981,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8243,7 +9001,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8263,7 +9021,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8283,7 +9041,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1">
+    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -8299,7 +9057,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8319,7 +9077,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8339,7 +9097,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="15" customFormat="1">
+    <row r="21" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -8359,7 +9117,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8379,7 +9137,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8399,7 +9157,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8419,7 +9177,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8439,7 +9197,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8459,7 +9217,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8482,7 +9240,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1">
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -8498,7 +9256,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8521,7 +9279,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8541,191 +9299,191 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
@@ -8746,11 +9504,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8762,7 +9515,7 @@
       <selection activeCell="M12" activeCellId="6" sqref="M3 M5 M7 M8 M9 M10 M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="10.83203125" style="3"/>
     <col min="11" max="11" width="10.83203125" style="3"/>
@@ -8773,7 +9526,7 @@
     <col min="18" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -8830,7 +9583,7 @@
       </c>
       <c r="S1" s="42"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8885,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8931,7 +9684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8983,7 +9736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="36" customFormat="1">
+    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -9023,7 +9776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9054,7 +9807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -9094,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -9134,7 +9887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="43" customFormat="1">
+    <row r="9" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>8</v>
       </c>
@@ -9174,7 +9927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -9211,7 +9964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -9242,7 +9995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -9288,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -9328,13 +10081,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P15" s="3">
         <f>AVERAGE(P2:P13)</f>
         <v>11.333333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
@@ -9348,7 +10101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -9359,7 +10112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -9373,7 +10126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -9384,27 +10137,22 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M22" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M23" s="3" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:S1">
-    <cfRule type="top10" dxfId="46" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9416,14 +10164,14 @@
       <selection activeCell="M23" activeCellId="6" sqref="M2 M5 M6 M18 M20 M21 M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="58.83203125" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9479,7 +10227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9513,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9559,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9608,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9642,7 +10390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" ht="16">
+    <row r="6" spans="1:18" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9688,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9737,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16">
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9786,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9826,7 +10574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9875,7 +10623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1">
+    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -9930,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9976,7 +10724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="15" customFormat="1">
+    <row r="13" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -10010,7 +10758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16">
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10056,7 +10804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10105,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16">
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -10151,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -10194,7 +10942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10237,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10280,7 +11028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="3" customFormat="1">
+    <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -10314,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10354,7 +11102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10400,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="3" customFormat="1">
+    <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10440,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16">
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -10483,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="15" customFormat="1">
+    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>24</v>
       </c>
@@ -10529,7 +11277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16">
+    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -10569,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -10612,7 +11360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10664,7 +11412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10719,7 +11467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="3" customFormat="1">
+    <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -10768,7 +11516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="3" customFormat="1">
+    <row r="31" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -10802,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16">
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10842,7 +11590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10888,7 +11636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="16">
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10931,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10971,7 +11719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11008,11 +11756,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I37" s="3"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I38" s="3"/>
       <c r="J38" s="7"/>
       <c r="M38" s="22" t="s">
@@ -11023,7 +11771,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -11039,7 +11787,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -11055,7 +11803,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -11068,7 +11816,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -11081,227 +11829,222 @@
       <c r="I42" s="3"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I43" s="3"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I44" s="3"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I45" s="3"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I46" s="3"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I47" s="3"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I48" s="3"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="3"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="3"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="3"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="3"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I53" s="3"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I54" s="3"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I55" s="3"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="3"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I57" s="3"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I58" s="3"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I59" s="3"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I60" s="3"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I61" s="3"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I62" s="3"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I63" s="3"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I64" s="3"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" s="3"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I66" s="3"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I67" s="3"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I68" s="3"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I69" s="3"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I70" s="3"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I71" s="3"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I72" s="3"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I73" s="3"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I74" s="3"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I75" s="3"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I76" s="3"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I77" s="3"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="9:10">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="9:10">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="9:10">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="9:9">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="9:9">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="9:9">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="9:9">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="9:9">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="9:9">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="9:9">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="9:9">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="9:9">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="9:9">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="9:9">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="9:9">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="9:9">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="9:9">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="9:9">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="9:9">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I96" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J36">
-    <cfRule type="top10" dxfId="44" priority="5" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="43" priority="6" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="6" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I36">
-    <cfRule type="top10" dxfId="42" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="41" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="40" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11313,12 +12056,12 @@
       <selection activeCell="M2" activeCellId="5" sqref="M12 M10 M8 M7 M3 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -11374,7 +12117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -11405,7 +12148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11448,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11491,7 +12234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="36" customFormat="1">
+    <row r="5" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -11525,7 +12268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11574,7 +12317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -11626,7 +12369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11669,7 +12412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1">
+    <row r="9" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -11715,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11752,7 +12495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11801,7 +12544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -11847,7 +12590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -11887,11 +12630,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="P15">
@@ -11899,7 +12642,7 @@
         <v>11.916666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>256</v>
       </c>
@@ -11912,7 +12655,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -11925,7 +12668,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -11938,7 +12681,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11951,263 +12694,258 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J13">
-    <cfRule type="top10" dxfId="38" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="37" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="36" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="35" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12219,13 +12957,13 @@
       <selection activeCell="M72" activeCellId="10" sqref="M7 M12 M22 M23 M27 M32 M33 M34 M35 M40 M72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="41.6640625" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12281,7 +13019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12315,7 +13053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12355,7 +13093,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12392,7 +13130,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12429,7 +13167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -12448,7 +13186,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -12467,7 +13205,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -12486,7 +13224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -12505,7 +13243,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12533,7 +13271,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12573,7 +13311,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -12592,7 +13330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12629,7 +13367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -12648,7 +13386,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -12667,7 +13405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -12686,7 +13424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -12705,7 +13443,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12736,7 +13474,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="11" customFormat="1">
+    <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -12776,7 +13514,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12816,7 +13554,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12856,7 +13594,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12884,7 +13622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12903,7 +13641,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12934,7 +13672,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12971,7 +13709,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="15" customFormat="1">
+    <row r="26" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -13005,7 +13743,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13027,7 +13765,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -13046,7 +13784,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -13065,7 +13803,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -13084,7 +13822,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -13103,7 +13841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13128,7 +13866,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13156,7 +13894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="3" customFormat="1" ht="16">
+    <row r="34" spans="1:13" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -13178,7 +13916,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13200,7 +13938,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -13219,7 +13957,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -13238,7 +13976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -13257,7 +13995,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -13276,7 +14014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13304,7 +14042,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13339,7 +14077,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13371,7 +14109,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13391,7 +14129,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -13411,7 +14149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -13431,7 +14169,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -13451,7 +14189,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -13471,7 +14209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13494,7 +14232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13520,7 +14258,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16">
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13543,7 +14281,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13566,7 +14304,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -13586,7 +14324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="15" customFormat="1">
+    <row r="53" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="31">
         <v>52</v>
       </c>
@@ -13606,7 +14344,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -13626,7 +14364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -13646,7 +14384,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13669,7 +14407,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13704,7 +14442,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13724,7 +14462,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13756,7 +14494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -13779,7 +14517,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -13799,7 +14537,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -13819,7 +14557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -13839,7 +14577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13868,7 +14606,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13900,7 +14638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13935,7 +14673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13958,7 +14696,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -13978,7 +14716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -13998,7 +14736,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -14018,7 +14756,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -14038,7 +14776,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="3" customFormat="1">
+    <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -14063,7 +14801,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14101,7 +14839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14139,7 +14877,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14177,7 +14915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14212,7 +14950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14232,10 +14970,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>256</v>
       </c>
@@ -14247,7 +14985,7 @@
       </c>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -14259,7 +14997,7 @@
       </c>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -14271,7 +15009,7 @@
       </c>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -14283,23 +15021,18 @@
       </c>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K83" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I77">
-    <cfRule type="top10" dxfId="34" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="33" priority="9" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="9" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14311,13 +15044,13 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="25.83203125" customWidth="1"/>
     <col min="13" max="13" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -14373,7 +15106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14390,7 +15123,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14413,7 +15146,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14430,7 +15163,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14460,7 +15193,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14477,7 +15210,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -14493,7 +15226,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14513,7 +15246,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -14529,7 +15262,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14546,7 +15279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14563,7 +15296,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14583,7 +15316,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="15" customFormat="1">
+    <row r="13" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -14600,7 +15333,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14617,7 +15350,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14634,7 +15367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14651,7 +15384,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14668,7 +15401,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1">
+    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -14684,7 +15417,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14701,7 +15434,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14721,7 +15454,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14738,7 +15471,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14758,7 +15491,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14775,7 +15508,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14795,7 +15528,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="15" customFormat="1">
+    <row r="25" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -14812,7 +15545,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14838,7 +15571,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14855,7 +15588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14872,7 +15605,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1">
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -14888,7 +15621,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14905,7 +15638,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14922,7 +15655,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14939,7 +15672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14956,7 +15689,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14973,7 +15706,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14990,7 +15723,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15007,192 +15740,187 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I36">
-    <cfRule type="top10" dxfId="31" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J36">
-    <cfRule type="top10" dxfId="30" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="29" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15204,12 +15932,12 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -15265,7 +15993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15281,7 +16009,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15300,7 +16028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15322,7 +16050,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1">
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -15338,7 +16066,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15354,7 +16082,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15373,7 +16101,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1">
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -15392,7 +16120,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1">
+    <row r="9" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -15408,7 +16136,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15424,7 +16152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15449,7 +16177,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15471,7 +16199,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15496,7 +16224,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -15515,7 +16243,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15549,7 +16277,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15583,7 +16311,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15599,7 +16327,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1">
+    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -15621,7 +16349,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15643,7 +16371,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1">
+    <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -15668,7 +16396,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15684,7 +16412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15700,7 +16428,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15725,7 +16453,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15747,7 +16475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15772,7 +16500,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15788,15 +16516,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>268</v>
       </c>
@@ -15809,7 +16537,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -15822,7 +16550,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -15835,7 +16563,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -15848,208 +16576,203 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="9:10">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="9:10">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="9:10">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="9:10">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="9:10">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="9:10">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="9:10">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="9:10">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="9:10">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="9:10">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="9:10">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="9:10">
+    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="9:10">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="9:10">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="9:10">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="9:10">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I30">
-    <cfRule type="top10" dxfId="27" priority="4" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="top10" dxfId="26" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
-    <cfRule type="top10" dxfId="25" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16061,12 +16784,12 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -16122,7 +16845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16141,7 +16864,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16178,7 +16901,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -16197,7 +16920,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16228,7 +16951,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="3" customFormat="1">
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -16256,7 +16979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16284,7 +17007,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16306,7 +17029,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1">
+    <row r="9" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -16325,7 +17048,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16344,7 +17067,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1">
+    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -16378,7 +17101,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16406,7 +17129,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16434,7 +17157,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16462,7 +17185,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16490,7 +17213,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16527,7 +17250,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16552,7 +17275,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1">
+    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -16571,7 +17294,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16587,7 +17310,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16606,7 +17329,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16628,7 +17351,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16653,7 +17376,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1">
+    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -16684,7 +17407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16712,7 +17435,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16740,7 +17463,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16768,7 +17491,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16805,15 +17528,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>256</v>
       </c>
@@ -16826,7 +17549,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>1</v>
       </c>
@@ -16839,7 +17562,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>2</v>
       </c>
@@ -16852,7 +17575,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>3</v>
       </c>
@@ -16865,190 +17588,190 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="9:10">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="9:10">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="9:10">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="9:10">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="9:10">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="9:10">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="9:10">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="9:10">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="9:10">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="9:10">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="9:10">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="9:10">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="9:10">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="9:10">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="9:10">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="9:10">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="9:10">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="9:10">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="9:10">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="9:10">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="9:10">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="9:10">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="9:10">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="9:10">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="9:10">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="9:10">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I27">
-    <cfRule type="top10" dxfId="23" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:R1">
     <cfRule type="top10" dxfId="21" priority="2" percent="1" bottom="1" rank="10"/>
@@ -17061,11 +17784,6 @@
   <ignoredErrors>
     <ignoredError sqref="I4" formulaRange="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17077,13 +17795,13 @@
       <selection activeCell="N13" activeCellId="5" sqref="N4 N8 N9 N11 N12 N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="51.83203125" customWidth="1"/>
     <col min="17" max="19" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -17139,7 +17857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1">
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -17183,7 +17901,7 @@
       </c>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1">
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -17228,7 +17946,7 @@
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
     </row>
-    <row r="4" spans="1:19" s="24" customFormat="1">
+    <row r="4" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -17264,7 +17982,7 @@
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
     </row>
-    <row r="5" spans="1:19" s="21" customFormat="1">
+    <row r="5" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -17311,7 +18029,7 @@
       </c>
       <c r="S5" s="26"/>
     </row>
-    <row r="6" spans="1:19" s="21" customFormat="1">
+    <row r="6" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -17352,7 +18070,7 @@
       </c>
       <c r="S6" s="26"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1">
+    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -17402,7 +18120,7 @@
       </c>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1">
+    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -17440,7 +18158,7 @@
       </c>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" spans="1:19" s="15" customFormat="1">
+    <row r="9" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -17478,7 +18196,7 @@
       </c>
       <c r="S9" s="20"/>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1">
+    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -17523,7 +18241,7 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1">
+    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -17561,7 +18279,7 @@
       </c>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1">
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -17599,7 +18317,7 @@
       </c>
       <c r="S12" s="19"/>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1">
+    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -17635,7 +18353,7 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1">
+    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -17674,7 +18392,7 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1">
+    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -17715,7 +18433,7 @@
       </c>
       <c r="S15" s="19"/>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1">
+    <row r="16" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -17753,7 +18471,7 @@
       </c>
       <c r="S16" s="19"/>
     </row>
-    <row r="17" spans="1:19" s="21" customFormat="1">
+    <row r="17" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
         <v>16</v>
       </c>
@@ -17800,7 +18518,7 @@
       </c>
       <c r="S17" s="26"/>
     </row>
-    <row r="18" spans="1:19" s="36" customFormat="1">
+    <row r="18" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>17</v>
       </c>
@@ -17838,7 +18556,7 @@
       </c>
       <c r="S18" s="38"/>
     </row>
-    <row r="19" spans="1:19" s="21" customFormat="1">
+    <row r="19" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39">
         <v>18</v>
       </c>
@@ -17876,7 +18594,7 @@
       </c>
       <c r="S19" s="26"/>
     </row>
-    <row r="20" spans="1:19" s="21" customFormat="1">
+    <row r="20" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
         <v>19</v>
       </c>
@@ -17921,7 +18639,7 @@
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
     </row>
-    <row r="21" spans="1:19" s="11" customFormat="1">
+    <row r="21" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -17959,7 +18677,7 @@
       </c>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" spans="1:19" s="11" customFormat="1">
+    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -17994,7 +18712,7 @@
       </c>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" spans="1:19" s="11" customFormat="1">
+    <row r="23" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -18030,7 +18748,7 @@
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1">
+    <row r="24" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -18066,7 +18784,7 @@
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" spans="1:19" s="11" customFormat="1">
+    <row r="25" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -18113,7 +18831,7 @@
       </c>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" spans="1:19" s="11" customFormat="1">
+    <row r="26" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -18151,7 +18869,7 @@
       </c>
       <c r="S26" s="19"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>256</v>
       </c>
@@ -18166,7 +18884,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>1</v>
       </c>
@@ -18177,7 +18895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>2</v>
       </c>
@@ -18191,7 +18909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>3</v>
       </c>
@@ -18205,7 +18923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N32" s="27" t="s">
         <v>83</v>
       </c>
@@ -18221,10 +18939,5 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>